--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Dsc2-Dsg1a.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2566046666666666</v>
+        <v>0.1334963333333333</v>
       </c>
       <c r="H2">
-        <v>0.769814</v>
+        <v>0.400489</v>
       </c>
       <c r="I2">
-        <v>0.2983841115869614</v>
+        <v>0.08243253673803125</v>
       </c>
       <c r="J2">
-        <v>0.2983841115869614</v>
+        <v>0.08243253673803125</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.029738</v>
+        <v>0.08106000000000001</v>
       </c>
       <c r="N2">
-        <v>0.089214</v>
+        <v>0.24318</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.007630909577333333</v>
+        <v>0.01082121278</v>
       </c>
       <c r="R2">
-        <v>0.068678186196</v>
+        <v>0.09739091502</v>
       </c>
       <c r="S2">
-        <v>0.2983841115869614</v>
+        <v>0.08243253673803125</v>
       </c>
       <c r="T2">
-        <v>0.2983841115869614</v>
+        <v>0.08243253673803125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.096835</v>
       </c>
       <c r="I3">
-        <v>0.03753377497099742</v>
+        <v>0.01993152045381335</v>
       </c>
       <c r="J3">
-        <v>0.03753377497099742</v>
+        <v>0.01993152045381336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.029738</v>
+        <v>0.08106000000000001</v>
       </c>
       <c r="N3">
-        <v>0.089214</v>
+        <v>0.24318</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0009598930766666667</v>
+        <v>0.0026164817</v>
       </c>
       <c r="R3">
-        <v>0.00863903769</v>
+        <v>0.0235483353</v>
       </c>
       <c r="S3">
-        <v>0.03753377497099742</v>
+        <v>0.01993152045381335</v>
       </c>
       <c r="T3">
-        <v>0.03753377497099742</v>
+        <v>0.01993152045381336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.571098</v>
+        <v>1.453687</v>
       </c>
       <c r="H4">
-        <v>1.713294</v>
+        <v>4.361061</v>
       </c>
       <c r="I4">
-        <v>0.6640821134420412</v>
+        <v>0.8976359428081554</v>
       </c>
       <c r="J4">
-        <v>0.6640821134420412</v>
+        <v>0.8976359428081554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.029738</v>
+        <v>0.08106000000000001</v>
       </c>
       <c r="N4">
-        <v>0.089214</v>
+        <v>0.24318</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.016983312324</v>
+        <v>0.11783586822</v>
       </c>
       <c r="R4">
-        <v>0.152849810916</v>
+        <v>1.06052281398</v>
       </c>
       <c r="S4">
-        <v>0.6640821134420412</v>
+        <v>0.8976359428081554</v>
       </c>
       <c r="T4">
-        <v>0.6640821134420412</v>
+        <v>0.8976359428081554</v>
       </c>
     </row>
   </sheetData>
